--- a/plan test.xlsx
+++ b/plan test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\orinoco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\orinoco\orinoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1C3E47-08D8-414A-AE26-B8F5F6AD0D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A4834-A5F8-49F6-84DF-5AF8395CA61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4170" windowWidth="20640" windowHeight="11160" xr2:uid="{C35F0C9E-2DD9-4D9E-9EE9-AEDCC05D1312}"/>
+    <workbookView xWindow="-10200" yWindow="-210" windowWidth="18900" windowHeight="11055" xr2:uid="{C35F0C9E-2DD9-4D9E-9EE9-AEDCC05D1312}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,109 +25,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>plan test</t>
   </si>
   <si>
-    <t>tache</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>mettre les articles sous forme de liste</t>
-  </si>
-  <si>
     <t>fetch</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire affichage dynamique </t>
-  </si>
-  <si>
-    <t>fecth + forEach sur élément ciblé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mise en place de l'id produit dans Url pour récupération </t>
-  </si>
-  <si>
-    <t>mettre photos + description comprennant prix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mise en place menu déroulant pour choix multiple </t>
-  </si>
-  <si>
-    <t>URLSearchParams + get dans url du fecth</t>
-  </si>
-  <si>
-    <t>boucle for</t>
-  </si>
-  <si>
-    <t>sauvegarde du choix</t>
-  </si>
-  <si>
-    <t>avec addEventListener + localStorage</t>
-  </si>
-  <si>
-    <t>redirection vers page "panier"</t>
-  </si>
-  <si>
-    <t>addEventListener + window.location sur bouton</t>
-  </si>
-  <si>
-    <t>mise en place d'un tableau de commande</t>
-  </si>
-  <si>
-    <t>mise en place d'un formulaire</t>
-  </si>
-  <si>
-    <t>FormData/verification des champs + envoi</t>
-  </si>
-  <si>
-    <t>Fait de façon dynamique avec mise en place de "class"</t>
-  </si>
-  <si>
-    <t>Affichage des données de certain du formulaire</t>
-  </si>
-  <si>
-    <t>Avec localstorage</t>
-  </si>
-  <si>
-    <t>afficher prix + numéro de commande</t>
-  </si>
-  <si>
-    <t>Avec localstorage de formData</t>
-  </si>
-  <si>
-    <t>page 1</t>
-  </si>
-  <si>
-    <t>page 2</t>
-  </si>
-  <si>
-    <t>page 3</t>
-  </si>
-  <si>
-    <t>page 4</t>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Résultat données</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>Page index</t>
+  </si>
+  <si>
+    <t>affichage</t>
+  </si>
+  <si>
+    <t>Fait l'appel à l'API</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Page produit</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>Permet de récupérer l'API mais aussi avec params.get l'id du produit choisi</t>
+  </si>
+  <si>
+    <t>afficheProduit</t>
+  </si>
+  <si>
+    <t>Permet d'afficher les éléments correspondant au produit séléctionner dans le HTML</t>
+  </si>
+  <si>
+    <t>Permet de d'afficher les images de façon dynamique dans le HTML</t>
+  </si>
+  <si>
+    <t>Page Panier</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>Permet de créer le contact pour le formulaire</t>
+  </si>
+  <si>
+    <t>Permet de récupérer les données du formulaire</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>Par un système de if permet de valider les champs du formulaire</t>
+  </si>
+  <si>
+    <t>Class Panier</t>
+  </si>
+  <si>
+    <t>ajoutPanier</t>
+  </si>
+  <si>
+    <t>permet de sauvegarde l'ajout fait dans le tableau</t>
+  </si>
+  <si>
+    <t>ajouterLigne</t>
+  </si>
+  <si>
+    <t>permet de mettre le prix dans la ligne à la fin correspondant au produit</t>
+  </si>
+  <si>
+    <t>additionPrix</t>
+  </si>
+  <si>
+    <t>permet de faire le total des prix des produits</t>
+  </si>
+  <si>
+    <t>SupprimerPanier</t>
+  </si>
+  <si>
+    <t>permet d'ajouter les lignes et les colonnes dans le tableau de façon dynamique et mettre le boutton supp</t>
+  </si>
+  <si>
+    <t>permet de faire fonctionner le boutton supprimer pour retirer les articles du tableau</t>
+  </si>
+  <si>
+    <t>Page confirmation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,13 +172,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -185,12 +204,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0A808F1-EA48-4A24-950B-CC68C39A67B7}" name="Tableau1" displayName="Tableau1" ref="E6:G21" totalsRowShown="0">
-  <autoFilter ref="E6:G21" xr:uid="{9B3006F6-B063-438B-88DB-951532C32DDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A2C8FF8-881E-49F6-88FB-AC0E30C2FB5D}" name="Tableau1" displayName="Tableau1" ref="E6:G23" totalsRowShown="0">
+  <autoFilter ref="E6:G23" xr:uid="{D4770EF9-6A49-4411-BEA4-946C9B265288}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{351F6741-95BE-4FE5-874E-A7430568C45E}" name="tache"/>
-    <tableColumn id="2" xr3:uid="{298570D0-9C20-4DE0-85D8-D9433D9D8527}" name="application"/>
-    <tableColumn id="3" xr3:uid="{4901C163-F4FF-4E3C-A602-AD38C652D429}" name="test"/>
+    <tableColumn id="1" xr3:uid="{1ADC17FE-A02B-4BF4-B48F-698607936D17}" name="Fonction"/>
+    <tableColumn id="2" xr3:uid="{5AFAF45D-B559-491C-9606-A75564CC405B}" name="Résultat données"/>
+    <tableColumn id="3" xr3:uid="{357A678B-4137-4C3A-AAD5-0603CAD3437C}" name="Passage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -493,16 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E56522-D0A3-4CB4-AE5C-6B033CEA3DC4}">
-  <dimension ref="E4:G21"/>
+  <dimension ref="E4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="92.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:7" x14ac:dyDescent="0.25">
@@ -512,31 +532,31 @@
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>27</v>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.25">
@@ -544,131 +564,149 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan test.xlsx
+++ b/plan test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\orinoco\orinoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A4834-A5F8-49F6-84DF-5AF8395CA61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA0EB0-295E-42C3-A4B0-5E0FDB7F4C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10200" yWindow="-210" windowWidth="18900" windowHeight="11055" xr2:uid="{C35F0C9E-2DD9-4D9E-9EE9-AEDCC05D1312}"/>
+    <workbookView xWindow="-6390" yWindow="4215" windowWidth="12600" windowHeight="15150" xr2:uid="{C35F0C9E-2DD9-4D9E-9EE9-AEDCC05D1312}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,105 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>plan test</t>
   </si>
   <si>
-    <t>fetch</t>
-  </si>
-  <si>
-    <t>Colonne4</t>
-  </si>
-  <si>
-    <t>Fonction</t>
-  </si>
-  <si>
-    <t>Résultat données</t>
-  </si>
-  <si>
-    <t>Passage</t>
-  </si>
-  <si>
-    <t>Page index</t>
-  </si>
-  <si>
     <t>affichage</t>
   </si>
   <si>
-    <t>Fait l'appel à l'API</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Page produit</t>
-  </si>
-  <si>
-    <t>Fetch</t>
-  </si>
-  <si>
-    <t>Permet de récupérer l'API mais aussi avec params.get l'id du produit choisi</t>
-  </si>
-  <si>
-    <t>afficheProduit</t>
-  </si>
-  <si>
-    <t>Permet d'afficher les éléments correspondant au produit séléctionner dans le HTML</t>
-  </si>
-  <si>
-    <t>Permet de d'afficher les images de façon dynamique dans le HTML</t>
-  </si>
-  <si>
-    <t>Page Panier</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>Permet de créer le contact pour le formulaire</t>
-  </si>
-  <si>
-    <t>Permet de récupérer les données du formulaire</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>Par un système de if permet de valider les champs du formulaire</t>
-  </si>
-  <si>
-    <t>Class Panier</t>
-  </si>
-  <si>
-    <t>ajoutPanier</t>
-  </si>
-  <si>
-    <t>permet de sauvegarde l'ajout fait dans le tableau</t>
-  </si>
-  <si>
-    <t>ajouterLigne</t>
-  </si>
-  <si>
-    <t>permet de mettre le prix dans la ligne à la fin correspondant au produit</t>
-  </si>
-  <si>
-    <t>additionPrix</t>
-  </si>
-  <si>
-    <t>permet de faire le total des prix des produits</t>
-  </si>
-  <si>
-    <t>SupprimerPanier</t>
-  </si>
-  <si>
-    <t>permet d'ajouter les lignes et les colonnes dans le tableau de façon dynamique et mettre le boutton supp</t>
-  </si>
-  <si>
-    <t>permet de faire fonctionner le boutton supprimer pour retirer les articles du tableau</t>
-  </si>
-  <si>
-    <t>Page confirmation</t>
+    <t>function</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>page index</t>
+  </si>
+  <si>
+    <t>async function retrieveContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on attend en résultat une url, on attend ensuite la reponse trascrit objet javascript et on la retourne </t>
+  </si>
+  <si>
+    <t>on passe des éléments de l'api dans éléments html, ainsi que id qu'on passe dans un lien, puis on hiérarchise les éléments pour avoir un code html correct</t>
   </si>
 </sst>
 </file>
@@ -140,24 +65,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,19 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -201,18 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A2C8FF8-881E-49F6-88FB-AC0E30C2FB5D}" name="Tableau1" displayName="Tableau1" ref="E6:G23" totalsRowShown="0">
-  <autoFilter ref="E6:G23" xr:uid="{D4770EF9-6A49-4411-BEA4-946C9B265288}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1ADC17FE-A02B-4BF4-B48F-698607936D17}" name="Fonction"/>
-    <tableColumn id="2" xr3:uid="{5AFAF45D-B559-491C-9606-A75564CC405B}" name="Résultat données"/>
-    <tableColumn id="3" xr3:uid="{357A678B-4137-4C3A-AAD5-0603CAD3437C}" name="Passage"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,207 +408,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E56522-D0A3-4CB4-AE5C-6B033CEA3DC4}">
-  <dimension ref="E4:G23"/>
+  <dimension ref="E4:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="57" customWidth="1"/>
     <col min="6" max="6" width="92.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>